--- a/Code/Results/Cases/Case_4_215/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_215/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.05466707645831</v>
+        <v>9.962056375687959</v>
       </c>
       <c r="C2">
-        <v>7.263757936400296</v>
+        <v>6.01085826928519</v>
       </c>
       <c r="D2">
-        <v>10.91993311416418</v>
+        <v>14.81917940431809</v>
       </c>
       <c r="E2">
-        <v>11.00576863700598</v>
+        <v>16.06956077238866</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.124197631317073</v>
+        <v>3.697537859662062</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>18.09579721238014</v>
+        <v>27.09372476323565</v>
       </c>
       <c r="J2">
-        <v>5.455516005985052</v>
+        <v>9.371417271002624</v>
       </c>
       <c r="K2">
-        <v>10.98813552949641</v>
+        <v>10.67763446192085</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.12839452308721</v>
+        <v>17.02962569999848</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.53107379426546</v>
+        <v>30.22109951554191</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.27307085123591</v>
+        <v>9.745444507363054</v>
       </c>
       <c r="C3">
-        <v>6.777901712078571</v>
+        <v>5.879221636905421</v>
       </c>
       <c r="D3">
-        <v>10.57894860834923</v>
+        <v>14.79467827794214</v>
       </c>
       <c r="E3">
-        <v>10.76761421095433</v>
+        <v>16.06953503015991</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.129875976513293</v>
+        <v>3.699649961894595</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>18.19396764586693</v>
+        <v>27.17531298897445</v>
       </c>
       <c r="J3">
-        <v>5.469825753030047</v>
+        <v>9.389179777339313</v>
       </c>
       <c r="K3">
-        <v>10.32303950090318</v>
+        <v>10.54606222751534</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>11.66481850929217</v>
+        <v>16.98456554604114</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>20.49213813835879</v>
+        <v>30.29184192596547</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.7657348963652</v>
+        <v>9.611972179904537</v>
       </c>
       <c r="C4">
-        <v>6.462639750369253</v>
+        <v>5.798124349489171</v>
       </c>
       <c r="D4">
-        <v>10.37081474099759</v>
+        <v>14.78259053086428</v>
       </c>
       <c r="E4">
-        <v>10.62549229910638</v>
+        <v>16.07243075518878</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.133468808793498</v>
+        <v>3.701015726755772</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>18.26618546365347</v>
+        <v>27.22993834682391</v>
       </c>
       <c r="J4">
-        <v>5.480531231148971</v>
+        <v>9.400996131946386</v>
       </c>
       <c r="K4">
-        <v>9.892776573292215</v>
+        <v>10.46643987151869</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.37653229968871</v>
+        <v>16.95975818794103</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20.48304406504794</v>
+        <v>30.3408254635133</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.55207072972907</v>
+        <v>9.557543400939377</v>
       </c>
       <c r="C5">
-        <v>6.329878804378374</v>
+        <v>5.765056959105439</v>
       </c>
       <c r="D5">
-        <v>10.28642140947792</v>
+        <v>14.77841182059869</v>
       </c>
       <c r="E5">
-        <v>10.56865834210492</v>
+        <v>16.07434394779656</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.134960339536063</v>
+        <v>3.701589674472422</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>18.29850028812317</v>
+        <v>27.25333652746239</v>
       </c>
       <c r="J5">
-        <v>5.485366839369914</v>
+        <v>9.40604057292688</v>
       </c>
       <c r="K5">
-        <v>9.711952520892133</v>
+        <v>10.43432239838666</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.25830543932321</v>
+        <v>16.95037550914745</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>20.48293248116891</v>
+        <v>30.36217942344215</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.51617343115903</v>
+        <v>9.54850567505204</v>
       </c>
       <c r="C6">
-        <v>6.307574104049592</v>
+        <v>5.759566413351813</v>
       </c>
       <c r="D6">
-        <v>10.27243691699549</v>
+        <v>14.777763175015</v>
       </c>
       <c r="E6">
-        <v>10.55928786215033</v>
+        <v>16.07470593706982</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.135209682944451</v>
+        <v>3.701686029846857</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18.30403708177245</v>
+        <v>27.25729046959277</v>
       </c>
       <c r="J6">
-        <v>5.486198085292151</v>
+        <v>9.406892050046732</v>
       </c>
       <c r="K6">
-        <v>9.681596061062226</v>
+        <v>10.42901026683958</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.23863408252065</v>
+        <v>16.9488616067689</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>20.48312721127934</v>
+        <v>30.36580928564685</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.76288139359802</v>
+        <v>9.611238178474713</v>
       </c>
       <c r="C7">
-        <v>6.460866692664327</v>
+        <v>5.79767840494587</v>
       </c>
       <c r="D7">
-        <v>10.36967471705525</v>
+        <v>14.78253114553202</v>
       </c>
       <c r="E7">
-        <v>10.62472137182107</v>
+        <v>16.072453587501</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.13348881217435</v>
+        <v>3.701023396740714</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18.26660974076721</v>
+        <v>27.23024929712745</v>
       </c>
       <c r="J7">
-        <v>5.480594542929454</v>
+        <v>9.401063234665195</v>
       </c>
       <c r="K7">
-        <v>9.890360108752711</v>
+        <v>10.46600534267925</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.37494064223776</v>
+        <v>16.9596286988786</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>20.48302817982335</v>
+        <v>30.34110781422761</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.7908509522335</v>
+        <v>9.887514292650849</v>
       </c>
       <c r="C8">
-        <v>7.09973382131753</v>
+        <v>5.96555519022188</v>
       </c>
       <c r="D8">
-        <v>10.80217189209689</v>
+        <v>14.81012035248282</v>
       </c>
       <c r="E8">
-        <v>10.92283079934883</v>
+        <v>16.06894831782442</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.126133887623009</v>
+        <v>3.698251840510162</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>18.12709613814698</v>
+        <v>27.12091551980344</v>
       </c>
       <c r="J8">
-        <v>5.460045807152714</v>
+        <v>9.377353088380486</v>
       </c>
       <c r="K8">
-        <v>10.76335998802489</v>
+        <v>10.63204902451388</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>11.96940708374307</v>
+        <v>17.01350004631741</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.51449626785125</v>
+        <v>30.24433887207057</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.59034640197258</v>
+        <v>10.42212908126817</v>
       </c>
       <c r="C9">
-        <v>8.219481755916856</v>
+        <v>6.290542300773391</v>
       </c>
       <c r="D9">
-        <v>11.6554705294678</v>
+        <v>14.88748550432578</v>
       </c>
       <c r="E9">
-        <v>11.53781699962225</v>
+        <v>16.08511933197894</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.112521320297937</v>
+        <v>3.693361185351387</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>17.95374888283513</v>
+        <v>26.9425061297699</v>
       </c>
       <c r="J9">
-        <v>5.435426189434472</v>
+        <v>9.338064322379667</v>
       </c>
       <c r="K9">
-        <v>12.30149857999339</v>
+        <v>10.9652622899662</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.09967741020731</v>
+        <v>17.14148078304184</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.69951655459823</v>
+        <v>30.09868384498784</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.78272524497187</v>
+        <v>10.80619758198532</v>
       </c>
       <c r="C10">
-        <v>8.963078331056163</v>
+        <v>6.524116344752352</v>
       </c>
       <c r="D10">
-        <v>12.28002936098362</v>
+        <v>14.95821513718033</v>
       </c>
       <c r="E10">
-        <v>12.00535323219122</v>
+        <v>16.11095565988959</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.102965262394965</v>
+        <v>3.690096327648641</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>17.89541383793406</v>
+        <v>26.83344084485036</v>
       </c>
       <c r="J10">
-        <v>5.427542725404923</v>
+        <v>9.313572613289988</v>
       </c>
       <c r="K10">
-        <v>13.32617726628394</v>
+        <v>11.21251963769148</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>13.90104724415895</v>
+        <v>17.24861861201837</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.91844946629948</v>
+        <v>30.01867997884025</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.29755885219732</v>
+        <v>10.97818459405884</v>
       </c>
       <c r="C11">
-        <v>9.284666052041487</v>
+        <v>6.628738317533384</v>
       </c>
       <c r="D11">
-        <v>12.56268675956488</v>
+        <v>14.99333379108702</v>
       </c>
       <c r="E11">
-        <v>12.22091419180456</v>
+        <v>16.1257128955559</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.098703008113957</v>
+        <v>3.688681593089384</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.8856799265695</v>
+        <v>26.78861834516897</v>
       </c>
       <c r="J11">
-        <v>5.426322036249735</v>
+        <v>9.303376236481704</v>
       </c>
       <c r="K11">
-        <v>13.76973042002837</v>
+        <v>11.32507454009611</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.25810768271747</v>
+        <v>17.3000848723137</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.0377176322216</v>
+        <v>29.98817093004528</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.4885955515095</v>
+        <v>11.04285479451945</v>
       </c>
       <c r="C12">
-        <v>9.404086096946079</v>
+        <v>6.668082286579974</v>
       </c>
       <c r="D12">
-        <v>12.66944712497282</v>
+        <v>15.00704838189694</v>
       </c>
       <c r="E12">
-        <v>12.30291499825688</v>
+        <v>16.13173019431465</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.097100177775229</v>
+        <v>3.688155945534826</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>17.88456780658059</v>
+        <v>26.77233547710563</v>
       </c>
       <c r="J12">
-        <v>5.42621309338563</v>
+        <v>9.299650696328012</v>
       </c>
       <c r="K12">
-        <v>13.93447661451591</v>
+        <v>11.3676694510473</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.39216379988873</v>
+        <v>17.31995512568908</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.08584343991734</v>
+        <v>29.97746569167811</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.44762591653737</v>
+        <v>11.02894825172026</v>
       </c>
       <c r="C13">
-        <v>9.378471074355348</v>
+        <v>6.659621648544162</v>
       </c>
       <c r="D13">
-        <v>12.6464675676076</v>
+        <v>15.00407632381441</v>
       </c>
       <c r="E13">
-        <v>12.2852386826745</v>
+        <v>16.13041522959049</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.097444894981384</v>
+        <v>3.688268705563942</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.88469027165945</v>
+        <v>26.77581155505607</v>
       </c>
       <c r="J13">
-        <v>5.426220626049855</v>
+        <v>9.300447031506152</v>
       </c>
       <c r="K13">
-        <v>13.89913816156602</v>
+        <v>11.35849768207126</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.36334485329734</v>
+        <v>17.31565894684505</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.07534487428871</v>
+        <v>29.97973352347005</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.31335382834906</v>
+        <v>10.98351457853525</v>
       </c>
       <c r="C14">
-        <v>9.294537836041627</v>
+        <v>6.631980879133867</v>
       </c>
       <c r="D14">
-        <v>12.57147586503148</v>
+        <v>14.99445380702943</v>
       </c>
       <c r="E14">
-        <v>12.22765319657941</v>
+        <v>16.12619936154305</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.098570924004724</v>
+        <v>3.688638145987582</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.8855359223835</v>
+        <v>26.78726489861951</v>
       </c>
       <c r="J14">
-        <v>5.426305914909513</v>
+        <v>9.303067017943189</v>
       </c>
       <c r="K14">
-        <v>13.78334849072261</v>
+        <v>11.32857960933883</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.26916009632435</v>
+        <v>17.30171203872893</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.04161686328001</v>
+        <v>29.98727320250016</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.230599309077</v>
+        <v>10.95562369340186</v>
       </c>
       <c r="C15">
-        <v>9.242820419172993</v>
+        <v>6.61501328983074</v>
       </c>
       <c r="D15">
-        <v>12.52550359276366</v>
+        <v>14.9886136756185</v>
       </c>
       <c r="E15">
-        <v>12.19242781557566</v>
+        <v>16.12367280291924</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.099262075804473</v>
+        <v>3.688865750340934</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>17.88639388832577</v>
+        <v>26.79437035812965</v>
       </c>
       <c r="J15">
-        <v>5.426404569605044</v>
+        <v>9.30468948671481</v>
       </c>
       <c r="K15">
-        <v>13.71200588578674</v>
+        <v>11.3102492678544</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.21131676650955</v>
+        <v>17.29321844117723</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.02134707294305</v>
+        <v>29.99200193614646</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.74852851433467</v>
+        <v>10.79489725369284</v>
       </c>
       <c r="C16">
-        <v>8.941729581617468</v>
+        <v>6.517242781238017</v>
       </c>
       <c r="D16">
-        <v>12.26152177188196</v>
+        <v>14.95597866424638</v>
       </c>
       <c r="E16">
-        <v>11.99132006309776</v>
+        <v>16.11005144777243</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.103245433496875</v>
+        <v>3.69019019744579</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>17.89640142937494</v>
+        <v>26.83646664350526</v>
       </c>
       <c r="J16">
-        <v>5.427671208958932</v>
+        <v>9.314257962301815</v>
       </c>
       <c r="K16">
-        <v>13.2967380343421</v>
+        <v>11.20516216383236</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>13.87755477509984</v>
+        <v>17.24530912649174</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.91106225403908</v>
+        <v>30.02079238235334</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.44576077828124</v>
+        <v>10.69555028524088</v>
       </c>
       <c r="C17">
-        <v>8.752776212350257</v>
+        <v>6.456816841599686</v>
       </c>
       <c r="D17">
-        <v>12.0991532852293</v>
+        <v>14.93670696685163</v>
       </c>
       <c r="E17">
-        <v>11.86865278921377</v>
+        <v>16.10246264321101</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.105710130232019</v>
+        <v>3.6910207142551</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>17.90695463411569</v>
+        <v>26.8635196506286</v>
       </c>
       <c r="J17">
-        <v>5.429063260121905</v>
+        <v>9.320369751797205</v>
       </c>
       <c r="K17">
-        <v>13.03622055350864</v>
+        <v>11.1406867545874</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.67082401634051</v>
+        <v>17.21660933810452</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.84853975906135</v>
+        <v>30.03996291468006</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.26901725439368</v>
+        <v>10.63815542103273</v>
       </c>
       <c r="C18">
-        <v>8.642522878383557</v>
+        <v>6.421910013337147</v>
       </c>
       <c r="D18">
-        <v>12.00562926387656</v>
+        <v>14.92589991609173</v>
       </c>
       <c r="E18">
-        <v>11.79837071064496</v>
+        <v>16.09838072743867</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.107135808946734</v>
+        <v>3.691505041143557</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>17.91459632924782</v>
+        <v>26.87953077584143</v>
       </c>
       <c r="J18">
-        <v>5.430085760586294</v>
+        <v>9.32397405885837</v>
       </c>
       <c r="K18">
-        <v>12.8842504888446</v>
+        <v>11.10361162067041</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.55121686438224</v>
+        <v>17.20035952882396</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.81442249995813</v>
+        <v>30.05154314935338</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.20872708527096</v>
+        <v>10.61868109632444</v>
       </c>
       <c r="C19">
-        <v>8.604921758192505</v>
+        <v>6.410066398568748</v>
       </c>
       <c r="D19">
-        <v>11.97394284098106</v>
+        <v>14.92228871335931</v>
       </c>
       <c r="E19">
-        <v>11.77462261453199</v>
+        <v>16.09704734412765</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.107619931473855</v>
+        <v>3.691670167139446</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>17.91744892443958</v>
+        <v>26.8850292764117</v>
       </c>
       <c r="J19">
-        <v>5.43046967170148</v>
+        <v>9.325209704261818</v>
       </c>
       <c r="K19">
-        <v>12.8324298836073</v>
+        <v>11.09106141117724</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.51060218637647</v>
+        <v>17.19490219256468</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.80318364278688</v>
+        <v>30.0555590900997</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.47825963205836</v>
+        <v>10.70615262339949</v>
       </c>
       <c r="C20">
-        <v>8.773053070958763</v>
+        <v>6.46326525212103</v>
       </c>
       <c r="D20">
-        <v>12.11645206996183</v>
+        <v>14.93872980110987</v>
       </c>
       <c r="E20">
-        <v>11.88168300129057</v>
+        <v>16.10324121891312</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.105446932951606</v>
+        <v>3.690931617936232</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>17.90566743244518</v>
+        <v>26.8605931299605</v>
       </c>
       <c r="J20">
-        <v>5.428892022369783</v>
+        <v>9.319709935653774</v>
       </c>
       <c r="K20">
-        <v>13.06417306010395</v>
+        <v>11.14754957658956</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.69290403876816</v>
+        <v>17.21963790426658</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.85500357318998</v>
+        <v>30.03786484491168</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.35289877885252</v>
+        <v>10.99687246575376</v>
       </c>
       <c r="C21">
-        <v>9.319254734012675</v>
+        <v>6.640107382925077</v>
       </c>
       <c r="D21">
-        <v>12.59351070184</v>
+        <v>14.9972689466825</v>
       </c>
       <c r="E21">
-        <v>12.24455763865953</v>
+        <v>16.12742604493901</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.09823988660362</v>
+        <v>3.688529359170952</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.88521639283652</v>
+        <v>26.78388202485544</v>
       </c>
       <c r="J21">
-        <v>5.426271166673468</v>
+        <v>9.302293786389379</v>
       </c>
       <c r="K21">
-        <v>13.81744579322094</v>
+        <v>11.3373683100788</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.29685632893268</v>
+        <v>17.30579833333771</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.05144217269556</v>
+        <v>29.98503559314421</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.9017039676198</v>
+        <v>11.18418061418997</v>
       </c>
       <c r="C22">
-        <v>9.662503732273022</v>
+        <v>6.75406989126471</v>
       </c>
       <c r="D22">
-        <v>12.90366590390089</v>
+        <v>15.03794817761092</v>
       </c>
       <c r="E22">
-        <v>12.48387376913309</v>
+        <v>16.14573147307901</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.093594384967913</v>
+        <v>3.687018084723669</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.88693058014335</v>
+        <v>26.73777190560042</v>
       </c>
       <c r="J22">
-        <v>5.426624232816479</v>
+        <v>9.291701610282912</v>
       </c>
       <c r="K22">
-        <v>14.29101497629923</v>
+        <v>11.46125031983891</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.684817513279</v>
+        <v>17.36432489455752</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.19714903559406</v>
+        <v>29.95545128889136</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.61086800845366</v>
+        <v>11.0844776583658</v>
       </c>
       <c r="C23">
-        <v>9.480547302980227</v>
+        <v>6.693405964967203</v>
       </c>
       <c r="D23">
-        <v>12.7382982067646</v>
+        <v>15.01601799069206</v>
       </c>
       <c r="E23">
-        <v>12.35596100793429</v>
+        <v>16.13573390129283</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.096068206846738</v>
+        <v>3.687819322372017</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.88458219278731</v>
+        <v>26.76201300925707</v>
       </c>
       <c r="J23">
-        <v>5.426242232847337</v>
+        <v>9.297282638051339</v>
       </c>
       <c r="K23">
-        <v>14.03996567112525</v>
+        <v>11.39516058637157</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.47839518168937</v>
+        <v>17.33288928641992</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.11775401747531</v>
+        <v>29.9707882594362</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.46357524615804</v>
+        <v>10.70136017022661</v>
       </c>
       <c r="C24">
-        <v>8.763890956871505</v>
+        <v>6.460350443332019</v>
       </c>
       <c r="D24">
-        <v>12.10863183308567</v>
+        <v>14.93781442837605</v>
       </c>
       <c r="E24">
-        <v>11.87579128864918</v>
+        <v>16.1028883493716</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.105565897294024</v>
+        <v>3.690971877035115</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>17.90624448391532</v>
+        <v>26.8619147834021</v>
       </c>
       <c r="J24">
-        <v>5.428968747866077</v>
+        <v>9.320007956427968</v>
       </c>
       <c r="K24">
-        <v>13.05154257122848</v>
+        <v>11.14444691476819</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.68292400579343</v>
+        <v>17.21826790967238</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.85207559980537</v>
+        <v>30.03881164157738</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.12648807403881</v>
+        <v>10.2787315188736</v>
       </c>
       <c r="C25">
-        <v>7.930602657758276</v>
+        <v>6.203355683073135</v>
       </c>
       <c r="D25">
-        <v>11.42468299528288</v>
+        <v>14.86409359450581</v>
       </c>
       <c r="E25">
-        <v>11.36849164906566</v>
+        <v>16.07828581729013</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.116121994977022</v>
+        <v>3.694626328170079</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>17.98911682143515</v>
+        <v>26.98690993995056</v>
       </c>
       <c r="J25">
-        <v>5.440343110091014</v>
+        <v>9.347923473605995</v>
       </c>
       <c r="K25">
-        <v>11.9039720680739</v>
+        <v>10.8745319882276</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.79854296527028</v>
+        <v>17.10451711644402</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.63544895873168</v>
+        <v>30.13335224992734</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_215/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_215/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.962056375687959</v>
+        <v>12.05466707645831</v>
       </c>
       <c r="C2">
-        <v>6.01085826928519</v>
+        <v>7.26375793640037</v>
       </c>
       <c r="D2">
-        <v>14.81917940431809</v>
+        <v>10.91993311416411</v>
       </c>
       <c r="E2">
-        <v>16.06956077238866</v>
+        <v>11.00576863700586</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.697537859662062</v>
+        <v>2.124197631316939</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>27.09372476323565</v>
+        <v>18.09579721238002</v>
       </c>
       <c r="J2">
-        <v>9.371417271002624</v>
+        <v>5.455516005984988</v>
       </c>
       <c r="K2">
-        <v>10.67763446192085</v>
+        <v>10.98813552949642</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.02962569999848</v>
+        <v>12.12839452308713</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>30.22109951554191</v>
+        <v>20.53107379426532</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.745444507363054</v>
+        <v>11.27307085123585</v>
       </c>
       <c r="C3">
-        <v>5.879221636905421</v>
+        <v>6.777901712078646</v>
       </c>
       <c r="D3">
-        <v>14.79467827794214</v>
+        <v>10.57894860834925</v>
       </c>
       <c r="E3">
-        <v>16.06953503015991</v>
+        <v>10.76761421095433</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.699649961894595</v>
+        <v>2.129875976513427</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>27.17531298897445</v>
+        <v>18.19396764586705</v>
       </c>
       <c r="J3">
-        <v>9.389179777339313</v>
+        <v>5.469825753030054</v>
       </c>
       <c r="K3">
-        <v>10.54606222751534</v>
+        <v>10.32303950090316</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.98456554604114</v>
+        <v>11.66481850929218</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>30.29184192596547</v>
+        <v>20.49213813835888</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.611972179904537</v>
+        <v>10.76573489636518</v>
       </c>
       <c r="C4">
-        <v>5.798124349489171</v>
+        <v>6.462639750369345</v>
       </c>
       <c r="D4">
-        <v>14.78259053086428</v>
+        <v>10.37081474099757</v>
       </c>
       <c r="E4">
-        <v>16.07243075518878</v>
+        <v>10.62549229910635</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.701015726755772</v>
+        <v>2.133468808793766</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>27.22993834682391</v>
+        <v>18.26618546365333</v>
       </c>
       <c r="J4">
-        <v>9.400996131946386</v>
+        <v>5.480531231148941</v>
       </c>
       <c r="K4">
-        <v>10.46643987151869</v>
+        <v>9.892776573292304</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.95975818794103</v>
+        <v>11.37653229968867</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>30.3408254635133</v>
+        <v>20.48304406504776</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.557543400939377</v>
+        <v>10.55207072972906</v>
       </c>
       <c r="C5">
-        <v>5.765056959105439</v>
+        <v>6.329878804378343</v>
       </c>
       <c r="D5">
-        <v>14.77841182059869</v>
+        <v>10.28642140947797</v>
       </c>
       <c r="E5">
-        <v>16.07434394779656</v>
+        <v>10.568658342105</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.701589674472422</v>
+        <v>2.134960339535796</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>27.25333652746239</v>
+        <v>18.29850028812335</v>
       </c>
       <c r="J5">
-        <v>9.40604057292688</v>
+        <v>5.485366839370004</v>
       </c>
       <c r="K5">
-        <v>10.43432239838666</v>
+        <v>9.711952520892087</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.95037550914745</v>
+        <v>11.25830543932325</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>30.36217942344215</v>
+        <v>20.48293248116907</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.54850567505204</v>
+        <v>10.51617343115912</v>
       </c>
       <c r="C6">
-        <v>5.759566413351813</v>
+        <v>6.307574104049592</v>
       </c>
       <c r="D6">
-        <v>14.777763175015</v>
+        <v>10.27243691699556</v>
       </c>
       <c r="E6">
-        <v>16.07470593706982</v>
+        <v>10.55928786215038</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.701686029846857</v>
+        <v>2.135209682944181</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>27.25729046959277</v>
+        <v>18.30403708177234</v>
       </c>
       <c r="J6">
-        <v>9.406892050046732</v>
+        <v>5.486198085292148</v>
       </c>
       <c r="K6">
-        <v>10.42901026683958</v>
+        <v>9.681596061062269</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.9488616067689</v>
+        <v>11.23863408252063</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>30.36580928564685</v>
+        <v>20.48312721127923</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.611238178474713</v>
+        <v>10.76288139359801</v>
       </c>
       <c r="C7">
-        <v>5.79767840494587</v>
+        <v>6.460866692664373</v>
       </c>
       <c r="D7">
-        <v>14.78253114553202</v>
+        <v>10.36967471705522</v>
       </c>
       <c r="E7">
-        <v>16.072453587501</v>
+        <v>10.62472137182091</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.701023396740714</v>
+        <v>2.133488812173947</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.23024929712745</v>
+        <v>18.26660974076716</v>
       </c>
       <c r="J7">
-        <v>9.401063234665195</v>
+        <v>5.480594542929337</v>
       </c>
       <c r="K7">
-        <v>10.46600534267925</v>
+        <v>9.890360108752741</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.9596286988786</v>
+        <v>11.37494064223769</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>30.34110781422761</v>
+        <v>20.48302817982334</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.887514292650849</v>
+        <v>11.79085095223347</v>
       </c>
       <c r="C8">
-        <v>5.96555519022188</v>
+        <v>7.099733821317619</v>
       </c>
       <c r="D8">
-        <v>14.81012035248282</v>
+        <v>10.80217189209681</v>
       </c>
       <c r="E8">
-        <v>16.06894831782442</v>
+        <v>10.92283079934882</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.698251840510162</v>
+        <v>2.126133887623142</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>27.12091551980344</v>
+        <v>18.12709613814699</v>
       </c>
       <c r="J8">
-        <v>9.377353088380486</v>
+        <v>5.460045807152776</v>
       </c>
       <c r="K8">
-        <v>10.63204902451388</v>
+        <v>10.7633599880249</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.01350004631741</v>
+        <v>11.96940708374304</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>30.24433887207057</v>
+        <v>20.51449626785117</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.42212908126817</v>
+        <v>13.59034640197265</v>
       </c>
       <c r="C9">
-        <v>6.290542300773391</v>
+        <v>8.219481755916858</v>
       </c>
       <c r="D9">
-        <v>14.88748550432578</v>
+        <v>11.65547052946781</v>
       </c>
       <c r="E9">
-        <v>16.08511933197894</v>
+        <v>11.53781699962232</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.693361185351387</v>
+        <v>2.112521320297804</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>26.9425061297699</v>
+        <v>17.95374888283493</v>
       </c>
       <c r="J9">
-        <v>9.338064322379667</v>
+        <v>5.435426189434509</v>
       </c>
       <c r="K9">
-        <v>10.9652622899662</v>
+        <v>12.30149857999344</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.14148078304184</v>
+        <v>13.09967741020731</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>30.09868384498784</v>
+        <v>20.69951655459803</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.80619758198532</v>
+        <v>14.78272524497189</v>
       </c>
       <c r="C10">
-        <v>6.524116344752352</v>
+        <v>8.963078331056028</v>
       </c>
       <c r="D10">
-        <v>14.95821513718033</v>
+        <v>12.28002936098356</v>
       </c>
       <c r="E10">
-        <v>16.11095565988959</v>
+        <v>12.00535323219118</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.690096327648641</v>
+        <v>2.102965262394831</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>26.83344084485036</v>
+        <v>17.89541383793408</v>
       </c>
       <c r="J10">
-        <v>9.313572613289988</v>
+        <v>5.427542725404921</v>
       </c>
       <c r="K10">
-        <v>11.21251963769148</v>
+        <v>13.32617726628389</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.24861861201837</v>
+        <v>13.90104724415896</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>30.01867997884025</v>
+        <v>20.91844946629956</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.97818459405884</v>
+        <v>15.29755885219728</v>
       </c>
       <c r="C11">
-        <v>6.628738317533384</v>
+        <v>9.284666052041478</v>
       </c>
       <c r="D11">
-        <v>14.99333379108702</v>
+        <v>12.56268675956487</v>
       </c>
       <c r="E11">
-        <v>16.1257128955559</v>
+        <v>12.22091419180446</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.688681593089384</v>
+        <v>2.09870300811409</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>26.78861834516897</v>
+        <v>17.88567992656954</v>
       </c>
       <c r="J11">
-        <v>9.303376236481704</v>
+        <v>5.426322036249626</v>
       </c>
       <c r="K11">
-        <v>11.32507454009611</v>
+        <v>13.76973042002832</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.3000848723137</v>
+        <v>14.25810768271744</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>29.98817093004528</v>
+        <v>21.03771763222163</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.04285479451945</v>
+        <v>15.48859555150943</v>
       </c>
       <c r="C12">
-        <v>6.668082286579974</v>
+        <v>9.404086096945921</v>
       </c>
       <c r="D12">
-        <v>15.00704838189694</v>
+        <v>12.66944712497287</v>
       </c>
       <c r="E12">
-        <v>16.13173019431465</v>
+        <v>12.30291499825687</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.688155945534826</v>
+        <v>2.097100177775362</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>26.77233547710563</v>
+        <v>17.88456780658072</v>
       </c>
       <c r="J12">
-        <v>9.299650696328012</v>
+        <v>5.42621309338555</v>
       </c>
       <c r="K12">
-        <v>11.3676694510473</v>
+        <v>13.93447661451581</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.31995512568908</v>
+        <v>14.39216379988875</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>29.97746569167811</v>
+        <v>21.08584343991754</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.02894825172026</v>
+        <v>15.44762591653745</v>
       </c>
       <c r="C13">
-        <v>6.659621648544162</v>
+        <v>9.378471074355261</v>
       </c>
       <c r="D13">
-        <v>15.00407632381441</v>
+        <v>12.64646756760762</v>
       </c>
       <c r="E13">
-        <v>16.13041522959049</v>
+        <v>12.28523868267448</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.688268705563942</v>
+        <v>2.097444894981518</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>26.77581155505607</v>
+        <v>17.88469027165938</v>
       </c>
       <c r="J13">
-        <v>9.300447031506152</v>
+        <v>5.426220626049854</v>
       </c>
       <c r="K13">
-        <v>11.35849768207126</v>
+        <v>13.89913816156602</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.31565894684505</v>
+        <v>14.36334485329734</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>29.97973352347005</v>
+        <v>21.07534487428866</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.98351457853525</v>
+        <v>15.31335382834903</v>
       </c>
       <c r="C14">
-        <v>6.631980879133867</v>
+        <v>9.294537836041778</v>
       </c>
       <c r="D14">
-        <v>14.99445380702943</v>
+        <v>12.57147586503148</v>
       </c>
       <c r="E14">
-        <v>16.12619936154305</v>
+        <v>12.2276531965794</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.688638145987582</v>
+        <v>2.098570924004589</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>26.78726489861951</v>
+        <v>17.88553592238339</v>
       </c>
       <c r="J14">
-        <v>9.303067017943189</v>
+        <v>5.426305914909493</v>
       </c>
       <c r="K14">
-        <v>11.32857960933883</v>
+        <v>13.78334849072268</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.30171203872893</v>
+        <v>14.26916009632433</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>29.98727320250016</v>
+        <v>21.04161686327982</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.95562369340186</v>
+        <v>15.23059930907693</v>
       </c>
       <c r="C15">
-        <v>6.61501328983074</v>
+        <v>9.242820419172993</v>
       </c>
       <c r="D15">
-        <v>14.9886136756185</v>
+        <v>12.52550359276368</v>
       </c>
       <c r="E15">
-        <v>16.12367280291924</v>
+        <v>12.19242781557567</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.688865750340934</v>
+        <v>2.099262075804073</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>26.79437035812965</v>
+        <v>17.88639388832586</v>
       </c>
       <c r="J15">
-        <v>9.30468948671481</v>
+        <v>5.426404569605019</v>
       </c>
       <c r="K15">
-        <v>11.3102492678544</v>
+        <v>13.7120058857867</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.29321844117723</v>
+        <v>14.21131676650955</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>29.99200193614646</v>
+        <v>21.02134707294312</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.79489725369284</v>
+        <v>14.74852851433473</v>
       </c>
       <c r="C16">
-        <v>6.517242781238017</v>
+        <v>8.941729581617397</v>
       </c>
       <c r="D16">
-        <v>14.95597866424638</v>
+        <v>12.26152177188197</v>
       </c>
       <c r="E16">
-        <v>16.11005144777243</v>
+        <v>11.99132006309772</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.69019019744579</v>
+        <v>2.103245433496875</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>26.83646664350526</v>
+        <v>17.896401429375</v>
       </c>
       <c r="J16">
-        <v>9.314257962301815</v>
+        <v>5.427671208958849</v>
       </c>
       <c r="K16">
-        <v>11.20516216383236</v>
+        <v>13.29673803434209</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.24530912649174</v>
+        <v>13.87755477509982</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>30.02079238235334</v>
+        <v>20.91106225403917</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.69555028524088</v>
+        <v>14.44576077828131</v>
       </c>
       <c r="C17">
-        <v>6.456816841599686</v>
+        <v>8.752776212350234</v>
       </c>
       <c r="D17">
-        <v>14.93670696685163</v>
+        <v>12.09915328522928</v>
       </c>
       <c r="E17">
-        <v>16.10246264321101</v>
+        <v>11.86865278921377</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.6910207142551</v>
+        <v>2.105710130232019</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>26.8635196506286</v>
+        <v>17.90695463411566</v>
       </c>
       <c r="J17">
-        <v>9.320369751797205</v>
+        <v>5.429063260121904</v>
       </c>
       <c r="K17">
-        <v>11.1406867545874</v>
+        <v>13.03622055350865</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.21660933810452</v>
+        <v>13.6708240163405</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>30.03996291468006</v>
+        <v>20.84853975906133</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.63815542103273</v>
+        <v>14.26901725439368</v>
       </c>
       <c r="C18">
-        <v>6.421910013337147</v>
+        <v>8.642522878383486</v>
       </c>
       <c r="D18">
-        <v>14.92589991609173</v>
+        <v>12.00562926387652</v>
       </c>
       <c r="E18">
-        <v>16.09838072743867</v>
+        <v>11.79837071064502</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.691505041143557</v>
+        <v>2.107135808946868</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>26.87953077584143</v>
+        <v>17.91459632924782</v>
       </c>
       <c r="J18">
-        <v>9.32397405885837</v>
+        <v>5.430085760586438</v>
       </c>
       <c r="K18">
-        <v>11.10361162067041</v>
+        <v>12.88425048884458</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.20035952882396</v>
+        <v>13.55121686438225</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>30.05154314935338</v>
+        <v>20.81442249995816</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.61868109632444</v>
+        <v>14.20872708527106</v>
       </c>
       <c r="C19">
-        <v>6.410066398568748</v>
+        <v>8.604921758192381</v>
       </c>
       <c r="D19">
-        <v>14.92228871335931</v>
+        <v>11.9739428409811</v>
       </c>
       <c r="E19">
-        <v>16.09704734412765</v>
+        <v>11.77462261453203</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.691670167139446</v>
+        <v>2.10761993147412</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>26.8850292764117</v>
+        <v>17.91744892443941</v>
       </c>
       <c r="J19">
-        <v>9.325209704261818</v>
+        <v>5.430469671701513</v>
       </c>
       <c r="K19">
-        <v>11.09106141117724</v>
+        <v>12.83242988360731</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.19490219256468</v>
+        <v>13.51060218637645</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>30.0555590900997</v>
+        <v>20.80318364278681</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.70615262339949</v>
+        <v>14.47825963205832</v>
       </c>
       <c r="C20">
-        <v>6.46326525212103</v>
+        <v>8.773053070958818</v>
       </c>
       <c r="D20">
-        <v>14.93872980110987</v>
+        <v>12.11645206996194</v>
       </c>
       <c r="E20">
-        <v>16.10324121891312</v>
+        <v>11.88168300129061</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.690931617936232</v>
+        <v>2.105446932951604</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>26.8605931299605</v>
+        <v>17.90566743244531</v>
       </c>
       <c r="J20">
-        <v>9.319709935653774</v>
+        <v>5.428892022369775</v>
       </c>
       <c r="K20">
-        <v>11.14754957658956</v>
+        <v>13.06417306010396</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.21963790426658</v>
+        <v>13.69290403876818</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>30.03786484491168</v>
+        <v>20.85500357319001</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.99687246575376</v>
+        <v>15.35289877885245</v>
       </c>
       <c r="C21">
-        <v>6.640107382925077</v>
+        <v>9.319254734012747</v>
       </c>
       <c r="D21">
-        <v>14.9972689466825</v>
+        <v>12.59351070183999</v>
       </c>
       <c r="E21">
-        <v>16.12742604493901</v>
+        <v>12.2445576386595</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.688529359170952</v>
+        <v>2.098239886603618</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>26.78388202485544</v>
+        <v>17.88521639283648</v>
       </c>
       <c r="J21">
-        <v>9.302293786389379</v>
+        <v>5.426271166673337</v>
       </c>
       <c r="K21">
-        <v>11.3373683100788</v>
+        <v>13.81744579322096</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.30579833333771</v>
+        <v>14.29685632893264</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>29.98503559314421</v>
+        <v>21.05144217269551</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.18418061418997</v>
+        <v>15.90170396761983</v>
       </c>
       <c r="C22">
-        <v>6.75406989126471</v>
+        <v>9.662503732273141</v>
       </c>
       <c r="D22">
-        <v>15.03794817761092</v>
+        <v>12.90366590390088</v>
       </c>
       <c r="E22">
-        <v>16.14573147307901</v>
+        <v>12.4838737691331</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.687018084723669</v>
+        <v>2.093594384967783</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>26.73777190560042</v>
+        <v>17.88693058014346</v>
       </c>
       <c r="J22">
-        <v>9.291701610282912</v>
+        <v>5.426624232816476</v>
       </c>
       <c r="K22">
-        <v>11.46125031983891</v>
+        <v>14.29101497629929</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.36432489455752</v>
+        <v>14.68481751327898</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>29.95545128889136</v>
+        <v>21.19714903559411</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.0844776583658</v>
+        <v>15.61086800845371</v>
       </c>
       <c r="C23">
-        <v>6.693405964967203</v>
+        <v>9.480547302980147</v>
       </c>
       <c r="D23">
-        <v>15.01601799069206</v>
+        <v>12.73829820676456</v>
       </c>
       <c r="E23">
-        <v>16.13573390129283</v>
+        <v>12.35596100793431</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.687819322372017</v>
+        <v>2.096068206846604</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>26.76201300925707</v>
+        <v>17.88458219278719</v>
       </c>
       <c r="J23">
-        <v>9.297282638051339</v>
+        <v>5.426242232847419</v>
       </c>
       <c r="K23">
-        <v>11.39516058637157</v>
+        <v>14.03996567112525</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.33288928641992</v>
+        <v>14.47839518168935</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>29.9707882594362</v>
+        <v>21.11775401747523</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.70136017022661</v>
+        <v>14.46357524615803</v>
       </c>
       <c r="C24">
-        <v>6.460350443332019</v>
+        <v>8.763890956871411</v>
       </c>
       <c r="D24">
-        <v>14.93781442837605</v>
+        <v>12.10863183308569</v>
       </c>
       <c r="E24">
-        <v>16.1028883493716</v>
+        <v>11.8757912886492</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.690971877035115</v>
+        <v>2.105565897294025</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>26.8619147834021</v>
+        <v>17.90624448391535</v>
       </c>
       <c r="J24">
-        <v>9.320007956427968</v>
+        <v>5.428968747866078</v>
       </c>
       <c r="K24">
-        <v>11.14444691476819</v>
+        <v>13.05154257122843</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.21826790967238</v>
+        <v>13.68292400579345</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>30.03881164157738</v>
+        <v>20.85207559980545</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.2787315188736</v>
+        <v>13.12648807403888</v>
       </c>
       <c r="C25">
-        <v>6.203355683073135</v>
+        <v>7.930602657758369</v>
       </c>
       <c r="D25">
-        <v>14.86409359450581</v>
+        <v>11.42468299528283</v>
       </c>
       <c r="E25">
-        <v>16.07828581729013</v>
+        <v>11.36849164906568</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.694626328170079</v>
+        <v>2.116121994977155</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>26.98690993995056</v>
+        <v>17.98911682143505</v>
       </c>
       <c r="J25">
-        <v>9.347923473605995</v>
+        <v>5.44034311009101</v>
       </c>
       <c r="K25">
-        <v>10.8745319882276</v>
+        <v>11.90397206807394</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.10451711644402</v>
+        <v>12.79854296527026</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.13335224992734</v>
+        <v>20.63544895873155</v>
       </c>
     </row>
   </sheetData>
